--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>1.328558632615739</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.893730324430364</v>
+        <v>0.4282194198276246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-1.435981453719049</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-1.586614087300087</v>
+        <v>-0.7704417043119083</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.8256244756900011</v>
+        <v>-0.8235211753995442</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-1.61188520630966</v>
+        <v>0.406633294022174</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.5994119800717845</v>
+        <v>-0.1034614224434405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.813262858385434</v>
+        <v>1.121293995080253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>1.128600547465064</v>
+        <v>2.185496833134781</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>2.397632938760519</v>
+        <v>0.6652762968575532</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>2.168477229273624</v>
+        <v>1.665250327443002</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>2.397632938760519</v>
+        <v>0.8574941660507873</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>0.6997950332806147</v>
+        <v>1.693469135756587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.08005015963426</v>
+        <v>1.079796209653616</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>0.5991205513815823</v>
+        <v>0.1494732105682406</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>0.2497225331041353</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.876770729193722</v>
+        <v>1.374377011838535</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>0.5555179840670776</v>
+        <v>1.656936590801972</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.902492721194715</v>
+        <v>0.922773818606859</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.817887133274421</v>
+        <v>1.310895847186577</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.749602965204744</v>
+        <v>1.346932828201242</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.412370212124414</v>
+        <v>1.364302026343633</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.740574921258409</v>
+        <v>1.862478303083726</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.513781691628258</v>
+        <v>1.745747589686109</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>1.834894614572802</v>
+        <v>1.644798626926303</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.807349526896274</v>
+        <v>1.639776099317536</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.72540577912379</v>
+        <v>1.843649045891893</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.859704669579565</v>
+        <v>1.741128155516525</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.115367468044549</v>
+        <v>2.181728312936415</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.026192376700298</v>
+        <v>2.284406789710336</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>2.523623631786731</v>
+        <v>1.990690441067144</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.518198850986875</v>
+        <v>2.463589365374652</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.237053039764336</v>
+        <v>2.149194501693219</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.31852959217409</v>
+        <v>2.349806433215029</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.811228693949229</v>
+        <v>2.036910005299108</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.988586823028471</v>
+        <v>2.010025322622599</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>2.344166347125687</v>
+        <v>1.665971362160357</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.482188835478793</v>
+        <v>2.031292234149706</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.216415718128294</v>
+        <v>1.332860091726285</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.319239871711941</v>
+        <v>1.799885362733189</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.001446656562432</v>
+        <v>1.029194292875912</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9535061289851043</v>
+        <v>1.31420459445093</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.4500589383543696</v>
+        <v>0.7771393814490102</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>0.9005461608770915</v>
+        <v>0.4126128934655471</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.3880736212224845</v>
+        <v>1.156986202028509</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-1.71906045117115</v>
+        <v>0.2336391425753925</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.624910644707001</v>
+        <v>0.9207450904090253</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.378957680654993</v>
+        <v>-4.43626840667447</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.711619913745535</v>
+        <v>-2.63419394755392</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.678040396387193</v>
+        <v>-2.71887004062904</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-4.43626840667447</v>
+        <v>-2.96879819115512</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.1114187992928839</v>
+        <v>-2.438555173006141</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.065841615027951</v>
+        <v>-2.010709456685855</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>3.829077445426443</v>
+        <v>-1.14257141002756</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.010673730825384</v>
+        <v>-1.513408827666285</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.41299470703982</v>
+        <v>0.7106578563214505</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.01418218718106</v>
+        <v>0.4582698374457683</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.513408827666285</v>
+        <v>1.154413086110817</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>2.690143847143123</v>
+        <v>-1.166698219025086</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.200566026798723</v>
+        <v>1.5286818008164</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.751396336682911</v>
+        <v>-0.7118141543333012</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.906776630685214</v>
+        <v>1.618732201786743</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.996132459072443</v>
+        <v>-0.4630595634534385</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.0257499723208543</v>
+        <v>1.314675624401973</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.618732201786743</v>
+        <v>0.006126408955742235</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.07579018556103101</v>
+        <v>0.5370151562237302</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.03476567089377713</v>
+        <v>0.001079933351455509</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.5721616075697</v>
+        <v>0.6889047703476203</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.006131358757832661</v>
+        <v>-0.09609276733164585</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.257115842174117</v>
+        <v>0.5285660612534882</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.9632741816949952</v>
+        <v>0.1199358335146838</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.09609276733164585</v>
+        <v>-0.1634698065940632</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.4484143214516623</v>
+        <v>-0.1145111565623136</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.09018476422182342</v>
+        <v>-0.00209793826797533</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.596765107383735</v>
+        <v>0.286657616500996</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>0.09179388078603967</v>
+        <v>-0.02761034355766023</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.580446709939154</v>
+        <v>0.08174908622293753</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.842782598119185</v>
+        <v>0.2676745853112728</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.02761034355766023</v>
+        <v>0.4725905789402463</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.5405494419323364</v>
+        <v>0.08564335928031852</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6051432752119057</v>
+        <v>0.501314651583451</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.5955127736224863</v>
+        <v>0.2155158706220295</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5151080441973876</v>
+        <v>0.5152269879013183</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.9526646531309746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.5152269879013183</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.9237678276839301</v>
+        <v>0.3332251551730891</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>3.145939949069287</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>1.328558632615739</v>
+        <v>2.455972543253826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>2.740959689118805</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.4282194198276246</v>
+        <v>3.206168778303486</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.769627576887389</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-1.435981453719049</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.7704417043119083</v>
+        <v>1.087227286828241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.61188520630966</v>
+        <v>-5.478010998490157</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.8235211753995442</v>
+        <v>-2.013762956649334</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-4.774178217057779</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.406633294022174</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-0.1034614224434405</v>
+        <v>-0.8523446516643385</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>1.128600547465064</v>
+        <v>-0.1091898317121864</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.121293995080253</v>
+        <v>-1.305195642355683</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>1.97975191822708</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>2.185496833134781</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>0.6652762968575532</v>
+        <v>1.39052144387346</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>2.397632938760519</v>
+        <v>3.371423250978856</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.665250327443002</v>
+        <v>0.8060632160631576</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>3.452886745653183</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.8574941660507873</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.693469135756587</v>
+        <v>2.798447799311043</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.5991205513815823</v>
+        <v>1.627570629117536</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.079796209653616</v>
+        <v>2.766358213445708</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.239479831392853</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.1494732105682406</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.8024032015999882</v>
+        <v>2.047133666472267</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>0.5555179840670776</v>
+        <v>-0.03183655677961861</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.374377011838535</v>
+        <v>1.102200073559878</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2379616621361214</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.656936590801972</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>0.922773818606859</v>
+        <v>1.062273708599726</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.749602965204744</v>
+        <v>1.812248956008733</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.310895847186577</v>
+        <v>1.209672013646323</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.51977456621637</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.346932828201242</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.364302026343633</v>
+        <v>0.6176326357196116</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.513781691628258</v>
+        <v>1.290465392296114</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.862478303083726</v>
+        <v>0.9879295308886871</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.470039379455756</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.745747589686109</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.644798626926303</v>
+        <v>1.577608035818301</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.72540577912379</v>
+        <v>1.57569012346459</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.639776099317536</v>
+        <v>1.643656926428561</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>1.638797242243251</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.843649045891893</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.741128155516525</v>
+        <v>1.369334405341616</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.026192376700298</v>
+        <v>1.73823635068906</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.181728312936415</v>
+        <v>1.765380623247137</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.161565493242668</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.284406789710336</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.990690441067144</v>
+        <v>2.486299099038347</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.463589365374652</v>
+        <v>2.50728418643813</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.149194501693219</v>
+        <v>2.11231490846715</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.349806433215029</v>
+        <v>2.337818484846466</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.036910005299108</v>
+        <v>2.076648015684435</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.344166347125687</v>
+        <v>2.354760705778203</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.010025322622599</v>
+        <v>2.107524645430914</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.214251681313772</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.665971362160357</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.031292234149706</v>
+        <v>1.362030665126834</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.332860091726285</v>
+        <v>0.8037559998091082</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.799885362733189</v>
+        <v>1.649904670037805</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.029194292875912</v>
+        <v>0.8311911554373719</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.31420459445093</v>
+        <v>1.758956425699298</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.9005461608770915</v>
+        <v>0.7024402883234027</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.7771393814490102</v>
+        <v>1.302300993836147</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>0.6066442151010376</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.4126128934655471</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>1.156986202028509</v>
+        <v>0.7878236429522678</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.2336391425753925</v>
+        <v>0.5367417164559685</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.9207450904090253</v>
+        <v>0.9721240557711397</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.43626840667447</v>
+        <v>-1.538034740964334</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-2.63419394755392</v>
+        <v>-0.7351085756681308</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.43626840667447</v>
+        <v>-4.65090747647452</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.71887004062904</v>
+        <v>-1.895157449498863</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-4.207901339433196</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-2.96879819115512</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.438555173006141</v>
+        <v>-0.4850133725290084</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.010709456685855</v>
+        <v>0.003696830084365388</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.14257141002756</v>
+        <v>-1.242205446257827</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.513408827666285</v>
+        <v>0.303920243687994</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.7106578563214505</v>
+        <v>-0.6038293380915438</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.513408827666285</v>
+        <v>0.7583924418458787</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.4582698374457683</v>
+        <v>1.108416787477773</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.099928004397532</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.154413086110817</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-1.166698219025086</v>
+        <v>1.102608990163567</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.5286818008164</v>
+        <v>1.880148611648913</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-0.7118141543333012</v>
+        <v>0.01066574587431646</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.618732201786743</v>
+        <v>1.91914784107321</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.4630595634534385</v>
+        <v>0.2384815980940092</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.618732201786743</v>
+        <v>2.236860175919531</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.314675624401973</v>
+        <v>0.8831516962375607</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.310042359896225</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>0.006126408955742235</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.5370151562237302</v>
+        <v>2.086256540666986</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.001079933351455509</v>
+        <v>0.2425620590337463</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.6889047703476203</v>
+        <v>1.106935253696562</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.09609276733164585</v>
+        <v>-0.1211988132392205</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.5285660612534882</v>
+        <v>0.7707080878861294</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09609276733164585</v>
+        <v>-0.09588622947416248</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.1199358335146838</v>
+        <v>0.8742015250004842</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.0464415346324687</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.1634698065940632</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-0.1145111565623136</v>
+        <v>0.3491198177708599</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.00209793826797533</v>
+        <v>-0.297474409307219</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.286657616500996</v>
+        <v>0.07171493608653101</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.02761034355766023</v>
+        <v>-0.04760886976447054</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.08174908622293753</v>
+        <v>0.5568966348730831</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.02761034355766023</v>
+        <v>-0.2385784141923808</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.2676745853112728</v>
+        <v>-0.06923086958923186</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.3101476031197148</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.4725905789402463</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.08564335928031852</v>
+        <v>0.2126457877301924</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.501314651583451</v>
+        <v>-0.07765238411295838</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.2155158706220295</v>
+        <v>-0.17084471036517</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5152269879013183</v>
+        <v>0.1245593350339691</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.3332251551730891</v>
+        <v>0.1722027100061974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-0.0960403240804597</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.1059622177528863</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-4.65090747647452</v>
+        <v>-6.356537224117487</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.895157449498863</v>
+        <v>-8.821046965146561</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.4850133725290084</v>
+        <v>-0.1895486537906499</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.003696830084365388</v>
+        <v>0.4146413258694137</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.242205446257827</v>
+        <v>-0.8956136585516083</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.303920243687994</v>
+        <v>-0.5490727792360373</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.6038293380915438</v>
+        <v>-1.780432496308937</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.7583924418458787</v>
+        <v>0.3172339686200898</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.108416787477773</v>
+        <v>-0.4546530185646103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.102608990163567</v>
+        <v>1.64129126057011</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.880148611648913</v>
+        <v>1.479361440497251</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.01066574587431646</v>
+        <v>-0.1782045183430392</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.91914784107321</v>
+        <v>1.6875728718037</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.2384815980940092</v>
+        <v>-0.1326041962933178</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.236860175919531</v>
+        <v>2.23409361759197</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.8831516962375607</v>
+        <v>0.3633393911697702</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.086256540666986</v>
+        <v>1.217841308475065</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.2425620590337463</v>
+        <v>1.98325800102106</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.106935253696562</v>
+        <v>4.881781055849199</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.1211988132392205</v>
+        <v>-0.0288046953595078</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.7707080878861294</v>
+        <v>0.9887944371492985</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.09588622947416248</v>
+        <v>0.01348861154684133</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.8742015250004842</v>
+        <v>0.8265619731264273</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.3491198177708599</v>
+        <v>1.063035646777699</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.297474409307219</v>
+        <v>0.04522170642344836</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.07171493608653101</v>
+        <v>0.801708530918499</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.04760886976447054</v>
+        <v>-0.1645795020818852</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.5568966348730831</v>
+        <v>0.2574142441027938</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.2385784141923808</v>
+        <v>-0.2058547204034311</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.06923086958923186</v>
+        <v>0.2971745009357152</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>0.2126457877301924</v>
+        <v>-0.08160878711860331</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.07765238411295838</v>
+        <v>-0.2675654179851605</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.17084471036517</v>
+        <v>-0.151886848314231</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.1245593350339691</v>
+        <v>0.06409464788887931</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.1722027100061974</v>
+        <v>-0.06354501920059485</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-0.0960403240804597</v>
+        <v>-0.1271672627326748</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.1059622177528863</v>
+        <v>-0.1556121492501061</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>3.145939949069287</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>2.455972543253826</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.740959689118805</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.769627576887389</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>1.087227286828241</v>
+        <v>1.087227286828263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +462,7 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-5.478010998490157</v>
+        <v>-5.478010998490146</v>
       </c>
       <c r="D5">
         <v>2010</v>
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-4.774178217057779</v>
+        <v>-4.774178217057756</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>-0.8523446516643385</v>
+        <v>-0.8523446516643496</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-1.305195642355683</v>
+        <v>-1.305195642355672</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +519,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>1.39052144387346</v>
+        <v>1.390521443873438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +530,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>3.371423250978856</v>
+        <v>3.371423250978833</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>0.8060632160631576</v>
+        <v>0.806063216063202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -582,7 +570,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.766358213445708</v>
+        <v>2.76635821344573</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>1.239479831392853</v>
+        <v>1.239479831392831</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.03183655677961861</v>
+        <v>-0.03183655677960751</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.102200073559878</v>
+        <v>1.102200073559856</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.2379616621361214</v>
+        <v>0.2379616621360992</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.812248956008733</v>
+        <v>1.812248956008777</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.209672013646323</v>
+        <v>1.209672013646301</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>0.6176326357196116</v>
+        <v>0.6176326357195894</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,13 +683,13 @@
         <v>2015</v>
       </c>
       <c r="C18">
-        <v>1.470039379455756</v>
+        <v>1.470039379455734</v>
       </c>
       <c r="D18">
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.577608035818301</v>
+        <v>1.577608035818323</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +700,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.57569012346459</v>
+        <v>1.575690123464613</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.643656926428561</v>
+        <v>1.643656926428538</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>1.638797242243251</v>
+        <v>1.638797242243228</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.369334405341616</v>
+        <v>1.369334405341593</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -780,13 +768,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.50728418643813</v>
+        <v>2.507284186438108</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.11231490846715</v>
+        <v>2.112314908467128</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,7 +785,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.337818484846466</v>
+        <v>2.337818484846443</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.354760705778203</v>
+        <v>2.354760705778181</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.107524645430914</v>
+        <v>2.107524645430892</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>1.362030665126834</v>
+        <v>1.36203066512679</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>0.8037559998091082</v>
+        <v>0.803755999809086</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.649904670037805</v>
+        <v>1.649904670037827</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +853,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>0.8311911554373719</v>
+        <v>0.8311911554373275</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.758956425699298</v>
+        <v>1.758956425699276</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>0.7024402883234027</v>
+        <v>0.7024402883234249</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -922,7 +910,7 @@
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>0.9721240557711397</v>
+        <v>0.9721240557711175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +921,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.538034740964334</v>
+        <v>-1.538034740964356</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-0.7351085756681308</v>
+        <v>-0.7351085756681197</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-6.356537224117487</v>
+        <v>-6.356537224117531</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-8.821046965146561</v>
+        <v>-8.821046965146573</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +961,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.1895486537906499</v>
+        <v>-0.1895486537906388</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.4146413258694137</v>
+        <v>0.4146413258694359</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.8956136585516083</v>
+        <v>-0.8956136585515861</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,7 +989,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.5490727792360373</v>
+        <v>-0.5490727792360039</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -1024,7 +1012,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.4546530185646103</v>
+        <v>-0.454653018564577</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.099928004397532</v>
+        <v>1.099928004397577</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1069,7 +1057,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.6875728718037</v>
+        <v>1.687572871803722</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.23409361759197</v>
+        <v>2.234093617591992</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1103,7 +1091,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>2.310042359896225</v>
+        <v>2.310042359896247</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1126,7 +1114,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.881781055849199</v>
+        <v>4.881781055849221</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,7 +1125,7 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.0288046953595078</v>
+        <v>-0.02880469535951891</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -1177,7 +1165,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>1.063035646777699</v>
+        <v>1.063035646777677</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.801708530918499</v>
+        <v>0.8017085309184768</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1645795020818852</v>
+        <v>-0.1645795020818963</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.2574142441027938</v>
+        <v>0.2574142441027716</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.2058547204034311</v>
+        <v>-0.2058547204034422</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.2971745009357152</v>
+        <v>0.2971745009357374</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.3101476031197148</v>
+        <v>-0.3101476031197037</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1256,13 +1244,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.2675654179851605</v>
+        <v>-0.2675654179851272</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-0.151886848314231</v>
+        <v>-0.1518868483142199</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1261,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.06409464788887931</v>
+        <v>0.06409464788890151</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.06354501920059485</v>
+        <v>-0.06354501920062816</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-0.1271672627326748</v>
+        <v>-0.1271672627326415</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.1556121492501061</v>
+        <v>-0.1556121492501283</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_GDP_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-0.1556121492501283</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.08656168856399082</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.1516437243033186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
